--- a/P2_Performer/Results/03-27-2023/Thomas Lopez - Los Angeles, California, United States of America.xlsx
+++ b/P2_Performer/Results/03-27-2023/Thomas Lopez - Los Angeles, California, United States of America.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\P2_Performer\Results\03-27-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B657067F-EA81-4B5E-B9E2-97D0AB0C3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D36DF29-9D43-4C3E-B8C9-DE67A07D5827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2004" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{A1FAF4A7-F0BB-4497-A1BA-7F4F59656CDF}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t># of Nights</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Max Temp</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Total Per Room</t>
   </si>
   <si>
     <t>Hauser &amp; Wirth</t>
@@ -744,12 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,6 +753,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,6 +775,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1100,12 +1100,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" customWidth="1"/>
   </cols>
@@ -1120,10 +1120,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="41"/>
+      <c r="D1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -1135,11 +1135,11 @@
       <c r="C2" s="12">
         <v>5</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="39">
         <f>PRODUCT(B2,C2)</f>
         <v>290</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1151,11 +1151,11 @@
       <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="39">
         <f t="shared" ref="D3:D4" si="0">PRODUCT(B3,C3)</f>
         <v>290</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
@@ -1167,33 +1167,33 @@
       <c r="C4" s="14">
         <v>5</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="39">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1232,34 +1232,34 @@
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1307,19 +1307,19 @@
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1472,6 +1472,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -1483,11 +1488,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
